--- a/-DOCUMENTATION-/Součástky – PMP.xlsx
+++ b/-DOCUMENTATION-/Součástky – PMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\GitHub\GM-Counter\-DOCUMENTATION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{5D57758D-706D-2345-A1AF-29ADA9E0DEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EEB784-B7EA-0944-8BB6-0FCD91E3C77D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F2C84-22E2-4BCD-A615-2E0E2F9E84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Součástka</t>
   </si>
@@ -233,9 +233,6 @@
     <t>URL / KOD</t>
   </si>
   <si>
-    <t>RDER72J104K4K1H03B</t>
-  </si>
-  <si>
     <t>JFH-100N</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>1N4937-DC</t>
   </si>
   <si>
-    <t>LTL-4221NLC</t>
-  </si>
-  <si>
     <t>NE555P</t>
   </si>
   <si>
@@ -293,13 +287,22 @@
     <t>01000056Z</t>
   </si>
   <si>
-    <t>COIL0912-10 / COIL0608-10</t>
-  </si>
-  <si>
     <t>DLA100-N</t>
   </si>
   <si>
-    <t>T93YA100R</t>
+    <t>CC1K-10N</t>
+  </si>
+  <si>
+    <t>LTL-4221N</t>
+  </si>
+  <si>
+    <t>COIL1010-10</t>
+  </si>
+  <si>
+    <t>T910Y-100R</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
 </sst>
 </file>
@@ -912,23 +915,23 @@
   <dimension ref="C2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.16015625" customWidth="1"/>
-    <col min="5" max="5" width="16.27734375" customWidth="1"/>
-    <col min="6" max="6" width="77.484375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
         <v>0</v>
@@ -943,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
@@ -956,7 +959,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
@@ -967,11 +970,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
@@ -982,11 +987,11 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
@@ -997,11 +1002,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1012,11 +1017,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1027,11 +1034,11 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1042,11 +1049,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1057,11 +1064,11 @@
         <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1072,11 +1079,13 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1087,11 +1096,11 @@
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1102,11 +1111,11 @@
         <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
         <v>13</v>
       </c>
@@ -1117,11 +1126,11 @@
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>14</v>
       </c>
@@ -1132,11 +1141,11 @@
         <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>15</v>
       </c>
@@ -1147,11 +1156,11 @@
         <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
         <v>16</v>
       </c>
@@ -1162,11 +1171,13 @@
         <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
@@ -1177,11 +1188,13 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
@@ -1192,11 +1205,13 @@
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
         <v>19</v>
       </c>
@@ -1207,11 +1222,13 @@
         <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="18" t="s">
         <v>20</v>
       </c>
@@ -1222,11 +1239,13 @@
         <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
         <v>21</v>
       </c>
@@ -1237,11 +1256,13 @@
         <v>44</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1277,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
         <v>23</v>
       </c>
@@ -1267,11 +1288,11 @@
         <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="18" t="s">
         <v>24</v>
       </c>
@@ -1282,11 +1303,11 @@
         <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
@@ -1297,11 +1318,13 @@
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1333,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1342,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="18" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1351,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1360,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="18" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1369,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
         <v>31</v>
       </c>

--- a/-DOCUMENTATION-/Součástky – PMP.xlsx
+++ b/-DOCUMENTATION-/Součástky – PMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\GitHub\GM-Counter\-DOCUMENTATION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F2C84-22E2-4BCD-A615-2E0E2F9E84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E072F5-7EFE-4671-907E-C78A5020383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>Součástka</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>GM</t>
+  </si>
+  <si>
+    <t>knop</t>
+  </si>
+  <si>
+    <t>mam</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -631,6 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -912,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:G34"/>
+  <dimension ref="C2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,13 +938,13 @@
     <col min="6" max="6" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
         <v>0</v>
@@ -946,7 +959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
@@ -958,8 +971,11 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
@@ -975,8 +991,11 @@
       <c r="G6" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1009,11 @@
         <v>65</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1005,8 +1027,11 @@
         <v>66</v>
       </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1047,11 @@
       <c r="G9" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1065,11 @@
         <v>68</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1052,8 +1083,11 @@
         <v>85</v>
       </c>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,11 @@
         <v>69</v>
       </c>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +1121,11 @@
       <c r="G13" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1139,11 @@
         <v>83</v>
       </c>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1157,11 @@
         <v>86</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
         <v>13</v>
       </c>
@@ -1129,8 +1175,11 @@
         <v>71</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1193,11 @@
         <v>72</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>15</v>
       </c>
@@ -1159,8 +1211,11 @@
         <v>73</v>
       </c>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
         <v>16</v>
       </c>
@@ -1176,8 +1231,11 @@
       <c r="G19" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
@@ -1193,8 +1251,11 @@
       <c r="G20" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
@@ -1210,8 +1271,11 @@
       <c r="G21" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
         <v>19</v>
       </c>
@@ -1227,8 +1291,14 @@
       <c r="G22" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="18" t="s">
         <v>20</v>
       </c>
@@ -1244,8 +1314,11 @@
       <c r="G23" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
         <v>21</v>
       </c>
@@ -1261,8 +1334,14 @@
       <c r="G24" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1356,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
         <v>23</v>
       </c>
@@ -1291,8 +1370,14 @@
         <v>81</v>
       </c>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="18" t="s">
         <v>24</v>
       </c>
@@ -1306,8 +1391,11 @@
         <v>82</v>
       </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1411,11 @@
       <c r="G28" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1424,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
@@ -1342,7 +1433,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="18" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1442,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
